--- a/planilhas/funcionarios.xlsx
+++ b/planilhas/funcionarios.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,33 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Marco da Silva</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>827.118.292.98</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>(21)83382222</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2º turno</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>FURACAO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/planilhas/funcionarios.xlsx
+++ b/planilhas/funcionarios.xlsx
@@ -141,8 +141,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -169,7 +173,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -192,56 +196,59 @@
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.38"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
     </row>

--- a/planilhas/funcionarios.xlsx
+++ b/planilhas/funcionarios.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
@@ -562,27 +562,81 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>arminto palhares</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>171.904.660-37</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>(21)39930293</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>2º turno</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>qualidade</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>ALCALENIO DA SILVA</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>267.601.007-78</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>(21)8382773</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2º turno</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>reparos</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>FLORISBALDO CUNHA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>607.712.603-93</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>(21)998438</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3º turno</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>qualidade</t>
         </is>
